--- a/第1次 第三章/T1/data.xlsx
+++ b/第1次 第三章/T1/data.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\大三上\数值代数\第1次 第三章\T6.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\文档\大三上\数值代数\第1次 第三章\T1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62806124-9742-4844-A522-91BB7360B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C1B82-C2FD-4BC3-A550-85039839349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
     <sheet name="Error" sheetId="2" r:id="rId2"/>
+    <sheet name="Cond" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Size</t>
   </si>
@@ -35,6 +36,18 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>R.Error</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cond</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N^3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2784,6 +2797,1377 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1606674831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>R.Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R.Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Error!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Error!$J$2:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.8898225872351553E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3301271628443916E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8507126485121461E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7310123451736474E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8527048477411753E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7766058660874049E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6496575363578637E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0101156650231563E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7437815747570129E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6356722151709811E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4205828617832615E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4302735932115885E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7939291557694069E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6391437125063965E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1322306774004622E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.138825067138224E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4389358468225638E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7807651404784998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2148253127418425E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6706260688333767E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2011063332843524E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7516754456791814E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3590189720407067E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0907799704681444E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0121-482F-B814-6ECFE744E534}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1606674831"/>
+        <c:axId val="1437786719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1606674831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437786719"/>
+        <c:crossesAt val="1.0000000000000005E-7"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1437786719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606674831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>R.Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Error!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R.Error</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Error!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Error!$J$2:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.8898225872351553E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3301271628443916E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8507126485121461E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7310123451736474E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8527048477411753E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7766058660874049E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6496575363578637E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0101156650231563E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7437815747570129E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6356722151709811E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4205828617832615E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4302735932115885E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7939291557694069E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6391437125063965E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.1322306774004622E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.138825067138224E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4389358468225638E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7807651404784998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2148253127418425E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6706260688333767E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2011063332843524E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7516754456791814E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3590189720407067E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0907799704681444E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CF2-4AF9-8DD2-C4D5066FCAD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1606674831"/>
+        <c:axId val="1437786719"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1606674831"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="128"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437786719"/>
+        <c:crossesAt val="1.0000000000000005E-7"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1437786719"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1606674831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cond!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Cond!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Cond!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.2790470379784509E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1982925319845282E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5561714903706573E-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8041645769698489E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4239082941830492E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1648117766418214E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1150538098648334E-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4933337308923185E-13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5747910318708498E-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5469482177451656E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.8728126877336036E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.2482411067405139E-13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8029125747813929E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5194018585700408E-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3610840473398159E-13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7563864111137259E-13</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3777064855875805E-13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0097426899831875E-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.7591437565838865E-13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.4465968512044237E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.179619116669066E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.8867750834497964E-13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6183887534348736E-13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4196787273947148E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB63-4522-ADD9-7D1D48354103}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="301342655"/>
+        <c:axId val="297064879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="301342655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297064879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297064879"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000006E-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301342655"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3072,6 +4456,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5653,6 +7157,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6399,6 +9451,123 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39687</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FA24CF-7ACE-4C10-8736-CE14B0786D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD327F3B-7F19-48A7-8803-1249493E23FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{978353D2-1F04-3110-32C3-83C5C221712F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6701,7 +9870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -6926,213 +10095,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMH25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCellId="1" sqref="J1:J1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1022" width="10.9140625" style="1"/>
+    <col min="1" max="9" width="10.9140625" style="1"/>
+    <col min="10" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="1022" width="10.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
+      <c r="I2" s="1">
+        <v>5.2915020000000004</v>
+      </c>
+      <c r="J2" s="1">
+        <f>B2/I2</f>
+        <v>1.8898225872351553E-7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>3.0000000000000001E-6</v>
       </c>
+      <c r="I3" s="1">
+        <v>6.9282029999999999</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J25" si="0">B3/I3</f>
+        <v>4.3301271628443916E-7</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>3.9999999999999998E-6</v>
       </c>
+      <c r="I4" s="1">
+        <v>8.2462110000000006</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>4.8507126485121461E-7</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>3.4999999999999997E-5</v>
       </c>
+      <c r="I5" s="1">
+        <v>9.3808319999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7310123451736474E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>9.2E-5</v>
       </c>
+      <c r="I6" s="1">
+        <v>10.392303999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8527048477411753E-6</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>2.0100000000000001E-4</v>
       </c>
+      <c r="I7" s="1">
+        <v>11.313708</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7766058660874049E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>35</v>
       </c>
       <c r="B8" s="1">
         <v>4.44E-4</v>
       </c>
+      <c r="I8" s="1">
+        <v>12.165525000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6496575363578637E-5</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>40</v>
       </c>
       <c r="B9" s="1">
         <v>7.7899999999999996E-4</v>
       </c>
+      <c r="I9" s="1">
+        <v>12.961480999999999</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0101156650231563E-5</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>45</v>
       </c>
       <c r="B10" s="1">
         <v>1.3359999999999999E-3</v>
       </c>
+      <c r="I10" s="1">
+        <v>13.711309</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>9.7437815747570129E-5</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>2.359E-3</v>
       </c>
+      <c r="I11" s="1">
+        <v>14.422205</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6356722151709811E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="1">
         <v>3.6549999999999998E-3</v>
       </c>
+      <c r="I12" s="1">
+        <v>15.099669</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4205828617832615E-4</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>60</v>
       </c>
       <c r="B13" s="1">
         <v>5.4019999999999997E-3</v>
       </c>
+      <c r="I13" s="1">
+        <v>15.748015000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4302735932115885E-4</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>65</v>
       </c>
       <c r="B14" s="1">
         <v>7.8480000000000008E-3</v>
       </c>
+      <c r="I14" s="1">
+        <v>16.370705000000001</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7939291557694069E-4</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>70</v>
       </c>
       <c r="B15" s="1">
         <v>1.1266999999999999E-2</v>
       </c>
+      <c r="I15" s="1">
+        <v>16.970562000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="0"/>
+        <v>6.6391437125063965E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>1.6027E-2</v>
       </c>
+      <c r="I16" s="1">
+        <v>17.549928999999999</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1322306774004622E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>80</v>
       </c>
       <c r="B17" s="1">
         <v>2.0625000000000001E-2</v>
       </c>
+      <c r="I17" s="1">
+        <v>18.110771</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.138825067138224E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>85</v>
       </c>
       <c r="B18" s="1">
         <v>2.6842999999999999E-2</v>
       </c>
+      <c r="I18" s="1">
+        <v>18.654758000000001</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4389358468225638E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>3.4160999999999997E-2</v>
       </c>
+      <c r="I19" s="1">
+        <v>19.183326999999998</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7807651404784998E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>95</v>
       </c>
       <c r="B20" s="1">
         <v>4.3626999999999999E-2</v>
       </c>
+      <c r="I20" s="1">
+        <v>19.697716</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2148253127418425E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>100</v>
       </c>
       <c r="B21" s="1">
         <v>5.3943999999999999E-2</v>
       </c>
+      <c r="I21" s="1">
+        <v>20.199009</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6706260688333767E-3</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>105</v>
       </c>
       <c r="B22" s="1">
         <v>6.6225000000000006E-2</v>
       </c>
+      <c r="I22" s="1">
+        <v>20.68816</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2011063332843524E-3</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>110</v>
       </c>
       <c r="B23" s="1">
         <v>7.9408000000000006E-2</v>
       </c>
+      <c r="I23" s="1">
+        <v>21.16601</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7516754456791814E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>115</v>
       </c>
       <c r="B24" s="1">
         <v>9.4299999999999995E-2</v>
       </c>
+      <c r="I24" s="1">
+        <v>21.633308</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="0"/>
+        <v>4.3590189720407067E-3</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>120</v>
       </c>
       <c r="B25" s="1">
         <v>0.112459</v>
+      </c>
+      <c r="I25" s="1">
+        <v>22.090720999999998</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0907799704681444E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7145,4 +10487,496 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA9AACF3-98A1-4CFC-8B92-29AEBCC85824}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.8898225872351553E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20.77</v>
+      </c>
+      <c r="D2" s="1">
+        <f>A2^3</f>
+        <v>125</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E25" si="0">B:B/C:C/D:D</f>
+        <v>7.2790470379784509E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.3301271628443916E-7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69.86</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D25" si="1">A3^3</f>
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>6.1982925319845282E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4.8507126485121461E-7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>150.4</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>3375</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9.5561714903706573E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.7310123451736474E-6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>258.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.8041645769698489E-12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8.8527048477411753E-6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>397.9</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>15625</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.4239082941830492E-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.7766058660874049E-5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>564.9</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1648117766418214E-12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.6496575363578637E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>763.4</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>42875</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1150538098648334E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.0101156650231563E-5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>989.2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.4933337308923185E-13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9.7437815747570129E-5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1247</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>91125</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.5747910318708498E-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6356722151709811E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1531</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.5469482177451656E-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2.4205828617832615E-4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1848</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>166375</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7.8728126877336036E-13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.4302735932115885E-4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2191</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>216000</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.2482411067405139E-13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.7939291557694069E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2566</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>274625</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6.8029125747813929E-13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6.6391437125063965E-4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2969</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>343000</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.5194018585700408E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.1322306774004622E-4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3403</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>421875</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.3610840473398159E-13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.138825067138224E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3864</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>512000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.7563864111137259E-13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.4389358468225638E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4357</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>614125</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.3777064855875805E-13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.7807651404784998E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4876</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>729000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.0097426899831875E-13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2148253127418425E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5428</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>857375</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>4.7591437565838865E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.6706260688333767E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>6006</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>4.4465968512044237E-13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.2011063332843524E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6616</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>1157625</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.179619116669066E-13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.7516754456791814E-3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7252</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>1331000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>3.8867750834497964E-13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>115</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.3590189720407067E-3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7921</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>1520875</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>3.6183887534348736E-13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>120</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0907799704681444E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8615</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>1728000</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>3.4196787273947148E-13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>